--- a/Producto/05-It_ II/01-Requerimientos/trash.pantallas.checklist.xlsx
+++ b/Producto/05-It_ II/01-Requerimientos/trash.pantallas.checklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>implementada</t>
   </si>
@@ -117,17 +117,17 @@
     <t>(no va) se registra lal visita a barrio despues de hacerla, no antes.</t>
   </si>
   <si>
-    <t>(falta enviar email a usuario y veterinaria)</t>
-  </si>
-  <si>
-    <t>(falta enviar email a spa mas cercana)</t>
+    <t>(falta hacer que si se selecciona "quiero regalar" del listado se agrege la fila correspondiente en sm_adopcion_oferta)</t>
+  </si>
+  <si>
+    <t>(retornar a listado correcto)(falta que las coincidencias coincidan , edad, raza, etc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="9"/>
@@ -185,6 +193,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="9"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +491,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -514,6 +523,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="1" t="s">
@@ -525,6 +537,9 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="1" t="s">
@@ -555,8 +570,8 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
+      <c r="C7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75">
@@ -566,8 +581,8 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
+      <c r="C8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
@@ -590,21 +605,45 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="2" t="s">
@@ -647,11 +686,23 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="1" t="s">
@@ -660,6 +711,9 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="3" t="s">
@@ -676,6 +730,9 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" t="s">
         <v>31</v>
       </c>
@@ -687,6 +744,9 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="1" t="s">
@@ -695,6 +755,9 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="1" t="s">
@@ -703,12 +766,18 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
         <v>2</v>
       </c>
     </row>
